--- a/InputFiles/CCDI/phs002620-diagnosis_20240206_T163325.xlsx
+++ b/InputFiles/CCDI/phs002620-diagnosis_20240206_T163325.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\Desktop\autom\ccdi_data\1.7.2\phs002620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F2A65ED5-2C29-4DAF-A8B8-418F5447F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758FD54-10DD-481A-B28E-E5257899955F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1882,7 +1882,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2736,16 +2736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.90625" bestFit="1" customWidth="1"/>
@@ -2830,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2845,7 +2848,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -2857,16 +2860,16 @@
         <v>26</v>
       </c>
       <c r="K2">
-        <v>8029</v>
+        <v>7197</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="W2" t="s">
         <v>617</v>
@@ -2877,10 +2880,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2892,10 +2895,10 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>368</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -2904,16 +2907,16 @@
         <v>26</v>
       </c>
       <c r="K3">
-        <v>926</v>
+        <v>1841</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>369</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="V3" t="s">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="W3" t="s">
         <v>617</v>
@@ -2924,10 +2927,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2939,10 +2942,10 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -2951,16 +2954,16 @@
         <v>26</v>
       </c>
       <c r="K4">
-        <v>1063</v>
+        <v>4780</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="V4" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="W4" t="s">
         <v>617</v>
@@ -2971,10 +2974,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2986,10 +2989,10 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -2998,16 +3001,16 @@
         <v>26</v>
       </c>
       <c r="K5">
-        <v>8359</v>
+        <v>5338</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="V5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="W5" t="s">
         <v>617</v>
@@ -3018,10 +3021,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -3033,7 +3036,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -3045,16 +3048,16 @@
         <v>26</v>
       </c>
       <c r="K6">
-        <v>1112</v>
+        <v>-999</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="W6" t="s">
         <v>617</v>
@@ -3065,10 +3068,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -3080,10 +3083,10 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -3092,16 +3095,16 @@
         <v>26</v>
       </c>
       <c r="K7">
-        <v>7197</v>
+        <v>8623</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="V7" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="W7" t="s">
         <v>617</v>
@@ -3112,10 +3115,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>469</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -3127,7 +3130,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>470</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -3139,16 +3142,16 @@
         <v>26</v>
       </c>
       <c r="K8">
-        <v>7197</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>471</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>472</v>
       </c>
       <c r="V8" t="s">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="W8" t="s">
         <v>617</v>
@@ -3159,10 +3162,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -3174,7 +3177,7 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -3186,16 +3189,16 @@
         <v>26</v>
       </c>
       <c r="K9">
-        <v>5338</v>
+        <v>4851</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="V9" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="W9" t="s">
         <v>617</v>
@@ -3206,10 +3209,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -3221,7 +3224,7 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -3233,16 +3236,16 @@
         <v>26</v>
       </c>
       <c r="K10">
-        <v>1572</v>
+        <v>6968</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>395</v>
       </c>
       <c r="U10" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="V10" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="W10" t="s">
         <v>617</v>
@@ -3253,10 +3256,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -3268,10 +3271,10 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
@@ -3280,16 +3283,16 @@
         <v>26</v>
       </c>
       <c r="K11">
-        <v>1572</v>
+        <v>8623</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="U11" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="V11" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="W11" t="s">
         <v>617</v>
@@ -3300,10 +3303,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -3315,7 +3318,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -3327,16 +3330,16 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>4479</v>
+        <v>7197</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="W12" t="s">
         <v>617</v>
@@ -3347,10 +3350,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -3362,10 +3365,10 @@
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -3374,16 +3377,16 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>4479</v>
+        <v>6971</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="U13" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="V13" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="W13" t="s">
         <v>617</v>
@@ -3394,10 +3397,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -3409,10 +3412,10 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -3421,16 +3424,16 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>15999</v>
+        <v>6764</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="V14" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="W14" t="s">
         <v>617</v>
@@ -3441,10 +3444,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -3456,7 +3459,7 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
@@ -3468,16 +3471,16 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>8792</v>
+        <v>1063</v>
       </c>
       <c r="T15" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="W15" t="s">
         <v>617</v>
@@ -3488,10 +3491,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -3503,10 +3506,10 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
@@ -3515,16 +3518,16 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>6087</v>
+        <v>1572</v>
       </c>
       <c r="T16" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="V16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="W16" t="s">
         <v>617</v>
@@ -3582,10 +3585,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -3597,10 +3600,10 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -3609,16 +3612,16 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>398</v>
+        <v>770</v>
       </c>
       <c r="T18" t="s">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="U18" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="V18" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="W18" t="s">
         <v>617</v>
@@ -3629,7 +3632,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -3656,16 +3659,16 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>5858</v>
+        <v>8029</v>
       </c>
       <c r="T19" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="U19" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="V19" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="W19" t="s">
         <v>617</v>
@@ -3676,10 +3679,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -3691,10 +3694,10 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
         <v>26</v>
@@ -3703,16 +3706,16 @@
         <v>26</v>
       </c>
       <c r="K20">
-        <v>6667</v>
+        <v>5858</v>
       </c>
       <c r="T20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W20" t="s">
         <v>617</v>
@@ -3723,10 +3726,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -3738,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
         <v>39</v>
@@ -3750,16 +3753,16 @@
         <v>26</v>
       </c>
       <c r="K21">
-        <v>6667</v>
+        <v>3075</v>
       </c>
       <c r="T21" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="U21" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="V21" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="W21" t="s">
         <v>617</v>
@@ -3770,10 +3773,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -3785,10 +3788,10 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
         <v>26</v>
@@ -3797,16 +3800,16 @@
         <v>26</v>
       </c>
       <c r="K22">
-        <v>-999</v>
+        <v>9625</v>
       </c>
       <c r="T22" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="U22" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="V22" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="W22" t="s">
         <v>617</v>
@@ -3817,10 +3820,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -3832,10 +3835,10 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="I23" t="s">
         <v>26</v>
@@ -3844,16 +3847,16 @@
         <v>26</v>
       </c>
       <c r="K23">
-        <v>-999</v>
+        <v>6764</v>
       </c>
       <c r="T23" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="U23" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="V23" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="W23" t="s">
         <v>617</v>
@@ -3864,10 +3867,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>400</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -3879,7 +3882,7 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="H24" t="s">
         <v>39</v>
@@ -3891,16 +3894,16 @@
         <v>26</v>
       </c>
       <c r="K24">
-        <v>5287</v>
+        <v>7946</v>
       </c>
       <c r="T24" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="U24" t="s">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="V24" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="W24" t="s">
         <v>617</v>
@@ -3911,10 +3914,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -3926,10 +3929,10 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
@@ -3938,16 +3941,16 @@
         <v>26</v>
       </c>
       <c r="K25">
-        <v>4851</v>
+        <v>11755</v>
       </c>
       <c r="T25" t="s">
-        <v>127</v>
+        <v>426</v>
       </c>
       <c r="U25" t="s">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="V25" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="W25" t="s">
         <v>617</v>
@@ -3958,10 +3961,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -3973,10 +3976,10 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
         <v>26</v>
@@ -3985,16 +3988,16 @@
         <v>26</v>
       </c>
       <c r="K26">
-        <v>6309</v>
+        <v>8838</v>
       </c>
       <c r="T26" t="s">
-        <v>130</v>
+        <v>447</v>
       </c>
       <c r="U26" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="V26" t="s">
-        <v>520</v>
+        <v>601</v>
       </c>
       <c r="W26" t="s">
         <v>617</v>
@@ -4005,10 +4008,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -4020,7 +4023,7 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -4032,16 +4035,16 @@
         <v>26</v>
       </c>
       <c r="K27">
-        <v>5786</v>
+        <v>10327</v>
       </c>
       <c r="T27" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="U27" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="V27" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="W27" t="s">
         <v>617</v>
@@ -4052,10 +4055,10 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -4067,7 +4070,7 @@
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -4079,16 +4082,16 @@
         <v>26</v>
       </c>
       <c r="K28">
-        <v>5786</v>
+        <v>6767</v>
       </c>
       <c r="T28" t="s">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="U28" t="s">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="V28" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="W28" t="s">
         <v>617</v>
@@ -4099,10 +4102,10 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -4114,7 +4117,7 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
@@ -4126,16 +4129,16 @@
         <v>26</v>
       </c>
       <c r="K29">
-        <v>4205</v>
+        <v>2351</v>
       </c>
       <c r="T29" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="U29" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="V29" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="W29" t="s">
         <v>617</v>
@@ -4146,10 +4149,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>434</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -4161,7 +4164,7 @@
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -4173,16 +4176,16 @@
         <v>26</v>
       </c>
       <c r="K30">
-        <v>6898</v>
+        <v>1761</v>
       </c>
       <c r="T30" t="s">
-        <v>145</v>
+        <v>435</v>
       </c>
       <c r="U30" t="s">
-        <v>146</v>
+        <v>436</v>
       </c>
       <c r="V30" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="W30" t="s">
         <v>617</v>
@@ -4193,10 +4196,10 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -4208,10 +4211,10 @@
         <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
         <v>26</v>
@@ -4220,16 +4223,16 @@
         <v>26</v>
       </c>
       <c r="K31">
-        <v>195</v>
+        <v>-999</v>
       </c>
       <c r="T31" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="U31" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="V31" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="W31" t="s">
         <v>617</v>
@@ -4240,10 +4243,10 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -4255,10 +4258,10 @@
         <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
@@ -4267,16 +4270,16 @@
         <v>26</v>
       </c>
       <c r="K32">
-        <v>6403</v>
+        <v>6309</v>
       </c>
       <c r="T32" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="U32" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="V32" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="W32" t="s">
         <v>617</v>
@@ -4287,10 +4290,10 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -4302,10 +4305,10 @@
         <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
@@ -4314,16 +4317,16 @@
         <v>26</v>
       </c>
       <c r="K33">
-        <v>4347</v>
+        <v>6898</v>
       </c>
       <c r="T33" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="U33" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="V33" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="W33" t="s">
         <v>617</v>
@@ -4334,10 +4337,10 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -4349,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
         <v>26</v>
@@ -4361,16 +4364,16 @@
         <v>26</v>
       </c>
       <c r="K34">
-        <v>6004</v>
+        <v>-999</v>
       </c>
       <c r="T34" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="U34" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="V34" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="W34" t="s">
         <v>617</v>
@@ -4381,10 +4384,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -4396,10 +4399,10 @@
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
         <v>26</v>
@@ -4408,16 +4411,16 @@
         <v>26</v>
       </c>
       <c r="K35">
-        <v>6004</v>
+        <v>1511</v>
       </c>
       <c r="T35" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="U35" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="V35" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="W35" t="s">
         <v>617</v>
@@ -4428,10 +4431,10 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -4443,10 +4446,10 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
@@ -4455,16 +4458,16 @@
         <v>26</v>
       </c>
       <c r="K36">
-        <v>3075</v>
+        <v>5672</v>
       </c>
       <c r="T36" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="U36" t="s">
-        <v>165</v>
+        <v>303</v>
       </c>
       <c r="V36" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="W36" t="s">
         <v>617</v>
@@ -4475,10 +4478,10 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -4490,10 +4493,10 @@
         <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
         <v>26</v>
@@ -4502,16 +4505,16 @@
         <v>26</v>
       </c>
       <c r="K37">
-        <v>3075</v>
+        <v>5957</v>
       </c>
       <c r="T37" t="s">
-        <v>167</v>
+        <v>353</v>
       </c>
       <c r="U37" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="V37" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="W37" t="s">
         <v>617</v>
@@ -4522,10 +4525,10 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -4537,7 +4540,7 @@
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -4549,16 +4552,16 @@
         <v>26</v>
       </c>
       <c r="K38">
-        <v>10327</v>
+        <v>8359</v>
       </c>
       <c r="T38" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="V38" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="W38" t="s">
         <v>617</v>
@@ -4569,10 +4572,10 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -4584,10 +4587,10 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
         <v>26</v>
@@ -4596,16 +4599,16 @@
         <v>26</v>
       </c>
       <c r="K39">
-        <v>317</v>
+        <v>4451</v>
       </c>
       <c r="T39" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="U39" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="V39" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="W39" t="s">
         <v>617</v>
@@ -4616,10 +4619,10 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -4631,7 +4634,7 @@
         <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s">
         <v>39</v>
@@ -4643,16 +4646,16 @@
         <v>26</v>
       </c>
       <c r="K40">
-        <v>6971</v>
+        <v>731</v>
       </c>
       <c r="T40" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="U40" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="V40" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="W40" t="s">
         <v>617</v>
@@ -4663,10 +4666,10 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>457</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -4678,7 +4681,7 @@
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s">
         <v>39</v>
@@ -4690,16 +4693,16 @@
         <v>26</v>
       </c>
       <c r="K41">
-        <v>6971</v>
+        <v>1868</v>
       </c>
       <c r="T41" t="s">
-        <v>183</v>
+        <v>458</v>
       </c>
       <c r="U41" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="V41" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="W41" t="s">
         <v>617</v>
@@ -4710,10 +4713,10 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>492</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -4725,7 +4728,7 @@
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
         <v>28</v>
@@ -4737,16 +4740,16 @@
         <v>26</v>
       </c>
       <c r="K42">
-        <v>-999</v>
+        <v>2248</v>
       </c>
       <c r="T42" t="s">
-        <v>187</v>
+        <v>493</v>
       </c>
       <c r="U42" t="s">
-        <v>188</v>
+        <v>494</v>
       </c>
       <c r="V42" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="W42" t="s">
         <v>617</v>
@@ -4757,10 +4760,10 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -4772,7 +4775,7 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="H43" t="s">
         <v>39</v>
@@ -4784,16 +4787,16 @@
         <v>26</v>
       </c>
       <c r="K43">
-        <v>2344</v>
+        <v>9625</v>
       </c>
       <c r="T43" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="U43" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="V43" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="W43" t="s">
         <v>617</v>
@@ -4804,10 +4807,10 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -4819,7 +4822,7 @@
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
         <v>28</v>
@@ -4831,16 +4834,16 @@
         <v>26</v>
       </c>
       <c r="K44">
-        <v>5207</v>
+        <v>1112</v>
       </c>
       <c r="T44" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="U44" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="V44" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="W44" t="s">
         <v>617</v>
@@ -4851,10 +4854,10 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -4866,10 +4869,10 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
         <v>26</v>
@@ -4878,16 +4881,16 @@
         <v>26</v>
       </c>
       <c r="K45">
-        <v>5207</v>
+        <v>951</v>
       </c>
       <c r="T45" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="U45" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="V45" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="W45" t="s">
         <v>617</v>
@@ -4898,10 +4901,10 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -4913,10 +4916,10 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
         <v>26</v>
@@ -4925,16 +4928,16 @@
         <v>26</v>
       </c>
       <c r="K46">
-        <v>527</v>
+        <v>1572</v>
       </c>
       <c r="T46" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="U46" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="V46" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="W46" t="s">
         <v>617</v>
@@ -4945,10 +4948,10 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -4960,7 +4963,7 @@
         <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H47" t="s">
         <v>39</v>
@@ -4972,16 +4975,16 @@
         <v>26</v>
       </c>
       <c r="K47">
-        <v>5888</v>
+        <v>6087</v>
       </c>
       <c r="T47" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="U47" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="V47" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="W47" t="s">
         <v>617</v>
@@ -4992,10 +4995,10 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -5007,10 +5010,10 @@
         <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s">
         <v>26</v>
@@ -5019,16 +5022,16 @@
         <v>26</v>
       </c>
       <c r="K48">
-        <v>5888</v>
+        <v>7019</v>
       </c>
       <c r="T48" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
       <c r="U48" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="V48" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="W48" t="s">
         <v>617</v>
@@ -5039,10 +5042,10 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>476</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -5054,7 +5057,7 @@
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="H49" t="s">
         <v>28</v>
@@ -5066,16 +5069,16 @@
         <v>26</v>
       </c>
       <c r="K49">
-        <v>5888</v>
+        <v>3574</v>
       </c>
       <c r="T49" t="s">
-        <v>210</v>
+        <v>479</v>
       </c>
       <c r="U49" t="s">
-        <v>208</v>
+        <v>480</v>
       </c>
       <c r="V49" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
       <c r="W49" t="s">
         <v>617</v>
@@ -5086,10 +5089,10 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -5101,10 +5104,10 @@
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
@@ -5113,16 +5116,16 @@
         <v>26</v>
       </c>
       <c r="K50">
-        <v>1739</v>
+        <v>5207</v>
       </c>
       <c r="T50" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="U50" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="V50" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="W50" t="s">
         <v>617</v>
@@ -5133,10 +5136,10 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -5148,10 +5151,10 @@
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I51" t="s">
         <v>26</v>
@@ -5160,16 +5163,16 @@
         <v>26</v>
       </c>
       <c r="K51">
-        <v>800</v>
+        <v>5207</v>
       </c>
       <c r="T51" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="U51" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="V51" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="W51" t="s">
         <v>617</v>
@@ -5180,10 +5183,10 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -5195,10 +5198,10 @@
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="H52" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
@@ -5207,16 +5210,16 @@
         <v>26</v>
       </c>
       <c r="K52">
-        <v>6759</v>
+        <v>3018</v>
       </c>
       <c r="T52" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="U52" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="V52" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="W52" t="s">
         <v>617</v>
@@ -5227,7 +5230,7 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
         <v>79</v>
@@ -5245,7 +5248,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I53" t="s">
         <v>26</v>
@@ -5254,16 +5257,16 @@
         <v>26</v>
       </c>
       <c r="K53">
-        <v>6759</v>
+        <v>4479</v>
       </c>
       <c r="T53" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="W53" t="s">
         <v>617</v>
@@ -5274,10 +5277,10 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -5289,7 +5292,7 @@
         <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
         <v>39</v>
@@ -5301,16 +5304,16 @@
         <v>26</v>
       </c>
       <c r="K54">
-        <v>4307</v>
+        <v>6667</v>
       </c>
       <c r="T54" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="U54" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="V54" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="W54" t="s">
         <v>617</v>
@@ -5321,10 +5324,10 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -5336,7 +5339,7 @@
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
         <v>39</v>
@@ -5348,16 +5351,16 @@
         <v>26</v>
       </c>
       <c r="K55">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="T55" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="U55" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="V55" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="W55" t="s">
         <v>617</v>
@@ -5368,10 +5371,10 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -5383,10 +5386,10 @@
         <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I56" t="s">
         <v>26</v>
@@ -5395,16 +5398,16 @@
         <v>26</v>
       </c>
       <c r="K56">
-        <v>2013</v>
+        <v>6004</v>
       </c>
       <c r="T56" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="U56" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="V56" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="W56" t="s">
         <v>617</v>
@@ -5415,10 +5418,10 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -5430,7 +5433,7 @@
         <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s">
         <v>39</v>
@@ -5442,16 +5445,16 @@
         <v>26</v>
       </c>
       <c r="K57">
-        <v>4451</v>
+        <v>3075</v>
       </c>
       <c r="T57" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="U57" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="V57" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="W57" t="s">
         <v>617</v>
@@ -5462,10 +5465,10 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -5477,7 +5480,7 @@
         <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
         <v>28</v>
@@ -5489,16 +5492,16 @@
         <v>26</v>
       </c>
       <c r="K58">
-        <v>12337</v>
+        <v>5888</v>
       </c>
       <c r="T58" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="U58" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="V58" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="W58" t="s">
         <v>617</v>
@@ -5509,7 +5512,7 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
         <v>79</v>
@@ -5527,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I59" t="s">
         <v>26</v>
@@ -5536,16 +5539,16 @@
         <v>26</v>
       </c>
       <c r="K59">
-        <v>12337</v>
+        <v>6759</v>
       </c>
       <c r="T59" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="U59" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="V59" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="W59" t="s">
         <v>617</v>
@@ -5556,10 +5559,10 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -5571,7 +5574,7 @@
         <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s">
         <v>28</v>
@@ -5583,16 +5586,16 @@
         <v>26</v>
       </c>
       <c r="K60">
-        <v>6303</v>
+        <v>12337</v>
       </c>
       <c r="T60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U60" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="V60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W60" t="s">
         <v>617</v>
@@ -5650,10 +5653,10 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -5665,7 +5668,7 @@
         <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s">
         <v>39</v>
@@ -5677,16 +5680,16 @@
         <v>26</v>
       </c>
       <c r="K62">
-        <v>731</v>
+        <v>9216</v>
       </c>
       <c r="T62" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="U62" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="V62" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W62" t="s">
         <v>617</v>
@@ -5697,10 +5700,10 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -5712,10 +5715,10 @@
         <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I63" t="s">
         <v>26</v>
@@ -5724,16 +5727,16 @@
         <v>26</v>
       </c>
       <c r="K63">
-        <v>822</v>
+        <v>6518</v>
       </c>
       <c r="T63" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="U63" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="V63" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="W63" t="s">
         <v>617</v>
@@ -5744,7 +5747,7 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
@@ -5771,16 +5774,16 @@
         <v>26</v>
       </c>
       <c r="K64">
-        <v>9216</v>
+        <v>3093</v>
       </c>
       <c r="T64" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="U64" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="V64" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="W64" t="s">
         <v>617</v>
@@ -5791,10 +5794,10 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -5806,7 +5809,7 @@
         <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
         <v>28</v>
@@ -5818,16 +5821,16 @@
         <v>26</v>
       </c>
       <c r="K65">
-        <v>6518</v>
+        <v>3916</v>
       </c>
       <c r="T65" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="U65" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="W65" t="s">
         <v>617</v>
@@ -5838,7 +5841,7 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
@@ -5856,7 +5859,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -5865,16 +5868,16 @@
         <v>26</v>
       </c>
       <c r="K66">
-        <v>6518</v>
+        <v>8242</v>
       </c>
       <c r="T66" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="U66" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="V66" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="W66" t="s">
         <v>617</v>
@@ -5885,10 +5888,10 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -5900,10 +5903,10 @@
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -5912,16 +5915,16 @@
         <v>26</v>
       </c>
       <c r="K67">
-        <v>1511</v>
+        <v>6004</v>
       </c>
       <c r="T67" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="U67" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="V67" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="W67" t="s">
         <v>617</v>
@@ -5932,10 +5935,10 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -5947,7 +5950,7 @@
         <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="H68" t="s">
         <v>28</v>
@@ -5959,16 +5962,16 @@
         <v>26</v>
       </c>
       <c r="K68">
-        <v>1392</v>
+        <v>6303</v>
       </c>
       <c r="T68" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="U68" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="V68" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="W68" t="s">
         <v>617</v>
@@ -5979,10 +5982,10 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C69" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -5994,10 +5997,10 @@
         <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -6006,16 +6009,16 @@
         <v>26</v>
       </c>
       <c r="K69">
-        <v>8623</v>
+        <v>14700</v>
       </c>
       <c r="T69" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="U69" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="V69" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="W69" t="s">
         <v>617</v>
@@ -6026,10 +6029,10 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="C70" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -6041,10 +6044,10 @@
         <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -6053,16 +6056,16 @@
         <v>26</v>
       </c>
       <c r="K70">
-        <v>8623</v>
+        <v>5646</v>
       </c>
       <c r="T70" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="U70" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="V70" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="W70" t="s">
         <v>617</v>
@@ -6073,10 +6076,10 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -6088,7 +6091,7 @@
         <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="H71" t="s">
         <v>39</v>
@@ -6100,16 +6103,16 @@
         <v>26</v>
       </c>
       <c r="K71">
-        <v>9625</v>
+        <v>4022</v>
       </c>
       <c r="T71" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="U71" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="V71" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="W71" t="s">
         <v>617</v>
@@ -6120,10 +6123,10 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -6135,10 +6138,10 @@
         <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -6147,16 +6150,16 @@
         <v>26</v>
       </c>
       <c r="K72">
-        <v>9625</v>
+        <v>4743</v>
       </c>
       <c r="T72" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="U72" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="V72" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="W72" t="s">
         <v>617</v>
@@ -6167,10 +6170,10 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -6182,7 +6185,7 @@
         <v>26</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="H73" t="s">
         <v>39</v>
@@ -6194,16 +6197,16 @@
         <v>26</v>
       </c>
       <c r="K73">
-        <v>951</v>
+        <v>5197</v>
       </c>
       <c r="T73" t="s">
-        <v>284</v>
+        <v>381</v>
       </c>
       <c r="U73" t="s">
-        <v>285</v>
+        <v>382</v>
       </c>
       <c r="V73" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="W73" t="s">
         <v>617</v>
@@ -6214,10 +6217,10 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>286</v>
+        <v>473</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -6229,10 +6232,10 @@
         <v>26</v>
       </c>
       <c r="G74" t="s">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="H74" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="I74" t="s">
         <v>26</v>
@@ -6241,16 +6244,16 @@
         <v>26</v>
       </c>
       <c r="K74">
-        <v>6764</v>
+        <v>2524</v>
       </c>
       <c r="T74" t="s">
-        <v>289</v>
+        <v>474</v>
       </c>
       <c r="U74" t="s">
-        <v>290</v>
+        <v>475</v>
       </c>
       <c r="V74" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="W74" t="s">
         <v>617</v>
@@ -6261,10 +6264,10 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -6276,10 +6279,10 @@
         <v>26</v>
       </c>
       <c r="G75" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="H75" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="I75" t="s">
         <v>26</v>
@@ -6288,16 +6291,16 @@
         <v>26</v>
       </c>
       <c r="K75">
-        <v>6764</v>
+        <v>12337</v>
       </c>
       <c r="T75" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="U75" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="V75" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="W75" t="s">
         <v>617</v>
@@ -6308,10 +6311,10 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>293</v>
+        <v>404</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -6323,7 +6326,7 @@
         <v>26</v>
       </c>
       <c r="G76" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="H76" t="s">
         <v>39</v>
@@ -6335,16 +6338,16 @@
         <v>26</v>
       </c>
       <c r="K76">
-        <v>3093</v>
+        <v>6052</v>
       </c>
       <c r="T76" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="U76" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="V76" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="W76" t="s">
         <v>617</v>
@@ -6355,10 +6358,10 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -6370,7 +6373,7 @@
         <v>26</v>
       </c>
       <c r="G77" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H77" t="s">
         <v>39</v>
@@ -6382,16 +6385,16 @@
         <v>26</v>
       </c>
       <c r="K77">
-        <v>3093</v>
+        <v>6667</v>
       </c>
       <c r="T77" t="s">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="U77" t="s">
-        <v>295</v>
+        <v>105</v>
       </c>
       <c r="V77" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="W77" t="s">
         <v>617</v>
@@ -6402,10 +6405,10 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -6417,7 +6420,7 @@
         <v>26</v>
       </c>
       <c r="G78" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H78" t="s">
         <v>28</v>
@@ -6429,16 +6432,16 @@
         <v>26</v>
       </c>
       <c r="K78">
-        <v>1722</v>
+        <v>4479</v>
       </c>
       <c r="T78" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="U78" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="V78" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="W78" t="s">
         <v>617</v>
@@ -6449,10 +6452,10 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -6464,7 +6467,7 @@
         <v>26</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="H79" t="s">
         <v>28</v>
@@ -6476,16 +6479,16 @@
         <v>26</v>
       </c>
       <c r="K79">
-        <v>5672</v>
+        <v>15999</v>
       </c>
       <c r="T79" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="U79" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="V79" t="s">
-        <v>559</v>
+        <v>511</v>
       </c>
       <c r="W79" t="s">
         <v>617</v>
@@ -6496,10 +6499,10 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -6511,7 +6514,7 @@
         <v>26</v>
       </c>
       <c r="G80" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s">
         <v>28</v>
@@ -6523,16 +6526,16 @@
         <v>26</v>
       </c>
       <c r="K80">
-        <v>3916</v>
+        <v>5888</v>
       </c>
       <c r="T80" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="U80" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="V80" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="W80" t="s">
         <v>617</v>
@@ -6543,10 +6546,10 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -6558,10 +6561,10 @@
         <v>26</v>
       </c>
       <c r="G81" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="H81" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I81" t="s">
         <v>26</v>
@@ -6570,16 +6573,16 @@
         <v>26</v>
       </c>
       <c r="K81">
-        <v>2351</v>
+        <v>6759</v>
       </c>
       <c r="T81" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="U81" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="V81" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="W81" t="s">
         <v>617</v>
@@ -6590,10 +6593,10 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -6605,10 +6608,10 @@
         <v>26</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H82" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I82" t="s">
         <v>26</v>
@@ -6617,16 +6620,16 @@
         <v>26</v>
       </c>
       <c r="K82">
-        <v>762</v>
+        <v>6518</v>
       </c>
       <c r="T82" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="U82" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="V82" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="W82" t="s">
         <v>617</v>
@@ -6637,10 +6640,10 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -6652,10 +6655,10 @@
         <v>26</v>
       </c>
       <c r="G83" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I83" t="s">
         <v>26</v>
@@ -6664,16 +6667,16 @@
         <v>26</v>
       </c>
       <c r="K83">
-        <v>14700</v>
+        <v>3093</v>
       </c>
       <c r="T83" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="U83" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="V83" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="W83" t="s">
         <v>617</v>
@@ -6684,10 +6687,10 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -6699,10 +6702,10 @@
         <v>26</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="I84" t="s">
         <v>26</v>
@@ -6711,16 +6714,16 @@
         <v>26</v>
       </c>
       <c r="K84">
-        <v>770</v>
+        <v>5957</v>
       </c>
       <c r="T84" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="U84" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="V84" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="W84" t="s">
         <v>617</v>
@@ -6731,10 +6734,10 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="C85" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -6746,7 +6749,7 @@
         <v>26</v>
       </c>
       <c r="G85" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="H85" t="s">
         <v>39</v>
@@ -6758,16 +6761,16 @@
         <v>26</v>
       </c>
       <c r="K85">
-        <v>7019</v>
+        <v>4780</v>
       </c>
       <c r="T85" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="U85" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="V85" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="W85" t="s">
         <v>617</v>
@@ -6778,10 +6781,10 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
@@ -6793,10 +6796,10 @@
         <v>26</v>
       </c>
       <c r="G86" t="s">
-        <v>328</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="I86" t="s">
         <v>26</v>
@@ -6805,16 +6808,16 @@
         <v>26</v>
       </c>
       <c r="K86">
-        <v>4264</v>
+        <v>6483</v>
       </c>
       <c r="T86" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="U86" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="V86" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="W86" t="s">
         <v>617</v>
@@ -6825,10 +6828,10 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -6840,7 +6843,7 @@
         <v>26</v>
       </c>
       <c r="G87" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
         <v>39</v>
@@ -6852,16 +6855,16 @@
         <v>26</v>
       </c>
       <c r="K87">
-        <v>1411</v>
+        <v>3710</v>
       </c>
       <c r="T87" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="U87" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="V87" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="W87" t="s">
         <v>617</v>
@@ -6872,10 +6875,10 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -6887,10 +6890,10 @@
         <v>26</v>
       </c>
       <c r="G88" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="I88" t="s">
         <v>26</v>
@@ -6899,16 +6902,16 @@
         <v>26</v>
       </c>
       <c r="K88">
-        <v>1065</v>
+        <v>6056</v>
       </c>
       <c r="T88" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="U88" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="V88" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="W88" t="s">
         <v>617</v>
@@ -6919,10 +6922,10 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -6934,7 +6937,7 @@
         <v>26</v>
       </c>
       <c r="G89" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H89" t="s">
         <v>28</v>
@@ -6946,16 +6949,16 @@
         <v>26</v>
       </c>
       <c r="K89">
-        <v>6245</v>
+        <v>3911</v>
       </c>
       <c r="T89" t="s">
-        <v>338</v>
+        <v>429</v>
       </c>
       <c r="U89" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="V89" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="W89" t="s">
         <v>617</v>
@@ -6966,10 +6969,10 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -6981,10 +6984,10 @@
         <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="H90" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I90" t="s">
         <v>26</v>
@@ -6993,16 +6996,16 @@
         <v>26</v>
       </c>
       <c r="K90">
-        <v>5646</v>
+        <v>4777</v>
       </c>
       <c r="T90" t="s">
-        <v>341</v>
+        <v>432</v>
       </c>
       <c r="U90" t="s">
-        <v>342</v>
+        <v>433</v>
       </c>
       <c r="V90" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="W90" t="s">
         <v>617</v>
@@ -7013,10 +7016,10 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
@@ -7028,7 +7031,7 @@
         <v>26</v>
       </c>
       <c r="G91" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s">
         <v>39</v>
@@ -7040,16 +7043,16 @@
         <v>26</v>
       </c>
       <c r="K91">
-        <v>441</v>
+        <v>8792</v>
       </c>
       <c r="T91" t="s">
-        <v>344</v>
+        <v>88</v>
       </c>
       <c r="U91" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="V91" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="W91" t="s">
         <v>617</v>
@@ -7060,10 +7063,10 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -7075,7 +7078,7 @@
         <v>26</v>
       </c>
       <c r="G92" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s">
         <v>39</v>
@@ -7087,16 +7090,16 @@
         <v>26</v>
       </c>
       <c r="K92">
-        <v>4022</v>
+        <v>5888</v>
       </c>
       <c r="T92" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="U92" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
       <c r="V92" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="W92" t="s">
         <v>617</v>
@@ -7107,10 +7110,10 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -7122,7 +7125,7 @@
         <v>26</v>
       </c>
       <c r="G93" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="H93" t="s">
         <v>39</v>
@@ -7134,16 +7137,16 @@
         <v>26</v>
       </c>
       <c r="K93">
-        <v>5957</v>
+        <v>6971</v>
       </c>
       <c r="T93" t="s">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="U93" t="s">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="V93" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="W93" t="s">
         <v>617</v>
@@ -7154,10 +7157,10 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -7169,10 +7172,10 @@
         <v>26</v>
       </c>
       <c r="G94" t="s">
-        <v>112</v>
+        <v>462</v>
       </c>
       <c r="H94" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I94" t="s">
         <v>26</v>
@@ -7181,16 +7184,16 @@
         <v>26</v>
       </c>
       <c r="K94">
-        <v>5957</v>
+        <v>3352</v>
       </c>
       <c r="T94" t="s">
-        <v>353</v>
+        <v>463</v>
       </c>
       <c r="U94" t="s">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="V94" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="W94" t="s">
         <v>617</v>
@@ -7201,10 +7204,10 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>461</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -7216,10 +7219,10 @@
         <v>26</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>462</v>
       </c>
       <c r="H95" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="I95" t="s">
         <v>26</v>
@@ -7228,16 +7231,16 @@
         <v>26</v>
       </c>
       <c r="K95">
-        <v>4743</v>
+        <v>10885</v>
       </c>
       <c r="T95" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="U95" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="V95" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="W95" t="s">
         <v>617</v>
@@ -7248,10 +7251,10 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -7263,7 +7266,7 @@
         <v>26</v>
       </c>
       <c r="G96" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="H96" t="s">
         <v>39</v>
@@ -7275,16 +7278,16 @@
         <v>26</v>
       </c>
       <c r="K96">
-        <v>4780</v>
+        <v>5287</v>
       </c>
       <c r="T96" t="s">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="U96" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="V96" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="W96" t="s">
         <v>617</v>
@@ -7295,10 +7298,10 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="C97" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -7310,10 +7313,10 @@
         <v>26</v>
       </c>
       <c r="G97" t="s">
-        <v>363</v>
+        <v>121</v>
       </c>
       <c r="H97" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I97" t="s">
         <v>26</v>
@@ -7322,16 +7325,16 @@
         <v>26</v>
       </c>
       <c r="K97">
-        <v>4780</v>
+        <v>4307</v>
       </c>
       <c r="T97" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="U97" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="V97" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="W97" t="s">
         <v>617</v>
@@ -7342,10 +7345,10 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="C98" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -7357,10 +7360,10 @@
         <v>26</v>
       </c>
       <c r="G98" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="H98" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I98" t="s">
         <v>26</v>
@@ -7369,16 +7372,16 @@
         <v>26</v>
       </c>
       <c r="K98">
-        <v>1841</v>
+        <v>7428</v>
       </c>
       <c r="T98" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="U98" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="V98" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="W98" t="s">
         <v>617</v>
@@ -7389,10 +7392,10 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>450</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -7404,10 +7407,10 @@
         <v>26</v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
       <c r="H99" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="I99" t="s">
         <v>26</v>
@@ -7416,16 +7419,16 @@
         <v>26</v>
       </c>
       <c r="K99">
-        <v>6483</v>
+        <v>6879</v>
       </c>
       <c r="T99" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="U99" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="V99" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="W99" t="s">
         <v>617</v>
@@ -7436,10 +7439,10 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>374</v>
+        <v>487</v>
       </c>
       <c r="C100" t="s">
-        <v>96</v>
+        <v>488</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -7451,10 +7454,10 @@
         <v>26</v>
       </c>
       <c r="G100" t="s">
-        <v>97</v>
+        <v>489</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I100" t="s">
         <v>26</v>
@@ -7463,16 +7466,16 @@
         <v>26</v>
       </c>
       <c r="K100">
-        <v>545</v>
+        <v>1861</v>
       </c>
       <c r="T100" t="s">
-        <v>375</v>
+        <v>490</v>
       </c>
       <c r="U100" t="s">
-        <v>376</v>
+        <v>491</v>
       </c>
       <c r="V100" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="W100" t="s">
         <v>617</v>
@@ -7483,10 +7486,10 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>377</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -7498,10 +7501,10 @@
         <v>26</v>
       </c>
       <c r="G101" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H101" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I101" t="s">
         <v>26</v>
@@ -7510,16 +7513,16 @@
         <v>26</v>
       </c>
       <c r="K101">
-        <v>8242</v>
+        <v>398</v>
       </c>
       <c r="T101" t="s">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="U101" t="s">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="W101" t="s">
         <v>617</v>
@@ -7530,10 +7533,10 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -7545,10 +7548,10 @@
         <v>26</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="H102" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I102" t="s">
         <v>26</v>
@@ -7557,16 +7560,16 @@
         <v>26</v>
       </c>
       <c r="K102">
-        <v>5197</v>
+        <v>5786</v>
       </c>
       <c r="T102" t="s">
-        <v>381</v>
+        <v>133</v>
       </c>
       <c r="U102" t="s">
-        <v>382</v>
+        <v>134</v>
       </c>
       <c r="V102" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="W102" t="s">
         <v>617</v>
@@ -7577,10 +7580,10 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -7592,10 +7595,10 @@
         <v>26</v>
       </c>
       <c r="G103" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H103" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I103" t="s">
         <v>26</v>
@@ -7604,16 +7607,16 @@
         <v>26</v>
       </c>
       <c r="K103">
-        <v>3710</v>
+        <v>6403</v>
       </c>
       <c r="T103" t="s">
-        <v>384</v>
+        <v>151</v>
       </c>
       <c r="U103" t="s">
-        <v>385</v>
+        <v>152</v>
       </c>
       <c r="V103" t="s">
-        <v>583</v>
+        <v>525</v>
       </c>
       <c r="W103" t="s">
         <v>617</v>
@@ -7624,7 +7627,7 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>386</v>
+        <v>153</v>
       </c>
       <c r="C104" t="s">
         <v>96</v>
@@ -7651,16 +7654,16 @@
         <v>26</v>
       </c>
       <c r="K104">
-        <v>840</v>
+        <v>4347</v>
       </c>
       <c r="T104" t="s">
-        <v>387</v>
+        <v>154</v>
       </c>
       <c r="U104" t="s">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="V104" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="W104" t="s">
         <v>617</v>
@@ -7671,7 +7674,7 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s">
         <v>96</v>
@@ -7698,16 +7701,16 @@
         <v>26</v>
       </c>
       <c r="K105">
-        <v>4997</v>
+        <v>317</v>
       </c>
       <c r="T105" t="s">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="U105" t="s">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="V105" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="W105" t="s">
         <v>617</v>
@@ -7718,10 +7721,10 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>96</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -7733,10 +7736,10 @@
         <v>26</v>
       </c>
       <c r="G106" t="s">
-        <v>394</v>
+        <v>97</v>
       </c>
       <c r="H106" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I106" t="s">
         <v>26</v>
@@ -7745,16 +7748,16 @@
         <v>26</v>
       </c>
       <c r="K106">
-        <v>6968</v>
+        <v>2344</v>
       </c>
       <c r="T106" t="s">
-        <v>395</v>
+        <v>190</v>
       </c>
       <c r="U106" t="s">
-        <v>396</v>
+        <v>191</v>
       </c>
       <c r="V106" t="s">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="W106" t="s">
         <v>617</v>
@@ -7765,7 +7768,7 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>397</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
         <v>96</v>
@@ -7792,16 +7795,16 @@
         <v>26</v>
       </c>
       <c r="K107">
-        <v>135</v>
+        <v>527</v>
       </c>
       <c r="T107" t="s">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="U107" t="s">
-        <v>399</v>
+        <v>202</v>
       </c>
       <c r="V107" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="W107" t="s">
         <v>617</v>
@@ -7812,10 +7815,10 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -7827,7 +7830,7 @@
         <v>26</v>
       </c>
       <c r="G108" t="s">
-        <v>401</v>
+        <v>97</v>
       </c>
       <c r="H108" t="s">
         <v>39</v>
@@ -7839,16 +7842,16 @@
         <v>26</v>
       </c>
       <c r="K108">
-        <v>7946</v>
+        <v>1739</v>
       </c>
       <c r="T108" t="s">
-        <v>402</v>
+        <v>212</v>
       </c>
       <c r="U108" t="s">
-        <v>403</v>
+        <v>213</v>
       </c>
       <c r="V108" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="W108" t="s">
         <v>617</v>
@@ -7859,10 +7862,10 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
-        <v>405</v>
+        <v>96</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -7874,7 +7877,7 @@
         <v>26</v>
       </c>
       <c r="G109" t="s">
-        <v>406</v>
+        <v>97</v>
       </c>
       <c r="H109" t="s">
         <v>39</v>
@@ -7886,16 +7889,16 @@
         <v>26</v>
       </c>
       <c r="K109">
-        <v>6052</v>
+        <v>800</v>
       </c>
       <c r="T109" t="s">
-        <v>407</v>
+        <v>215</v>
       </c>
       <c r="U109" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
       <c r="V109" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="W109" t="s">
         <v>617</v>
@@ -7906,7 +7909,7 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
         <v>96</v>
@@ -7924,7 +7927,7 @@
         <v>97</v>
       </c>
       <c r="H110" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="I110" t="s">
         <v>26</v>
@@ -7933,16 +7936,16 @@
         <v>26</v>
       </c>
       <c r="K110">
-        <v>7391</v>
+        <v>220</v>
       </c>
       <c r="T110" t="s">
-        <v>410</v>
+        <v>226</v>
       </c>
       <c r="U110" t="s">
-        <v>411</v>
+        <v>227</v>
       </c>
       <c r="V110" t="s">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="W110" t="s">
         <v>617</v>
@@ -7953,10 +7956,10 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>412</v>
+        <v>228</v>
       </c>
       <c r="C111" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -7968,10 +7971,10 @@
         <v>26</v>
       </c>
       <c r="G111" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H111" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="I111" t="s">
         <v>26</v>
@@ -7980,16 +7983,16 @@
         <v>26</v>
       </c>
       <c r="K111">
-        <v>6056</v>
+        <v>2013</v>
       </c>
       <c r="T111" t="s">
-        <v>413</v>
+        <v>229</v>
       </c>
       <c r="U111" t="s">
-        <v>414</v>
+        <v>230</v>
       </c>
       <c r="V111" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="W111" t="s">
         <v>617</v>
@@ -8000,10 +8003,10 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>415</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>416</v>
+        <v>96</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -8015,10 +8018,10 @@
         <v>26</v>
       </c>
       <c r="G112" t="s">
-        <v>417</v>
+        <v>97</v>
       </c>
       <c r="H112" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="I112" t="s">
         <v>26</v>
@@ -8027,16 +8030,16 @@
         <v>26</v>
       </c>
       <c r="K112">
-        <v>3018</v>
+        <v>822</v>
       </c>
       <c r="T112" t="s">
-        <v>418</v>
+        <v>250</v>
       </c>
       <c r="U112" t="s">
-        <v>419</v>
+        <v>251</v>
       </c>
       <c r="V112" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="W112" t="s">
         <v>617</v>
@@ -8047,10 +8050,10 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>420</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
-        <v>421</v>
+        <v>96</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -8062,7 +8065,7 @@
         <v>26</v>
       </c>
       <c r="G113" t="s">
-        <v>422</v>
+        <v>97</v>
       </c>
       <c r="H113" t="s">
         <v>28</v>
@@ -8074,16 +8077,16 @@
         <v>26</v>
       </c>
       <c r="K113">
-        <v>7428</v>
+        <v>1392</v>
       </c>
       <c r="T113" t="s">
-        <v>423</v>
+        <v>264</v>
       </c>
       <c r="U113" t="s">
-        <v>424</v>
+        <v>265</v>
       </c>
       <c r="V113" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="W113" t="s">
         <v>617</v>
@@ -8094,10 +8097,10 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -8109,7 +8112,7 @@
         <v>26</v>
       </c>
       <c r="G114" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="H114" t="s">
         <v>28</v>
@@ -8121,16 +8124,16 @@
         <v>26</v>
       </c>
       <c r="K114">
-        <v>11755</v>
+        <v>1722</v>
       </c>
       <c r="T114" t="s">
-        <v>426</v>
+        <v>299</v>
       </c>
       <c r="U114" t="s">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="V114" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="W114" t="s">
         <v>617</v>
@@ -8141,10 +8144,10 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>428</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
@@ -8156,10 +8159,10 @@
         <v>26</v>
       </c>
       <c r="G115" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H115" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I115" t="s">
         <v>26</v>
@@ -8168,16 +8171,16 @@
         <v>26</v>
       </c>
       <c r="K115">
-        <v>3911</v>
+        <v>762</v>
       </c>
       <c r="T115" t="s">
-        <v>429</v>
+        <v>313</v>
       </c>
       <c r="U115" t="s">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="V115" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="W115" t="s">
         <v>617</v>
@@ -8188,10 +8191,10 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="C116" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
@@ -8203,7 +8206,7 @@
         <v>26</v>
       </c>
       <c r="G116" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H116" t="s">
         <v>39</v>
@@ -8215,16 +8218,16 @@
         <v>26</v>
       </c>
       <c r="K116">
-        <v>4777</v>
+        <v>1411</v>
       </c>
       <c r="T116" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="U116" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="V116" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="W116" t="s">
         <v>617</v>
@@ -8235,10 +8238,10 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
+        <v>96</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -8250,10 +8253,10 @@
         <v>26</v>
       </c>
       <c r="G117" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="H117" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I117" t="s">
         <v>26</v>
@@ -8262,16 +8265,16 @@
         <v>26</v>
       </c>
       <c r="K117">
-        <v>1761</v>
+        <v>1065</v>
       </c>
       <c r="T117" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="U117" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="V117" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="W117" t="s">
         <v>617</v>
@@ -8282,10 +8285,10 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -8297,7 +8300,7 @@
         <v>26</v>
       </c>
       <c r="G118" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H118" t="s">
         <v>28</v>
@@ -8309,16 +8312,16 @@
         <v>26</v>
       </c>
       <c r="K118">
-        <v>6767</v>
+        <v>6245</v>
       </c>
       <c r="T118" t="s">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="U118" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="V118" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="W118" t="s">
         <v>617</v>
@@ -8329,7 +8332,7 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="C119" t="s">
         <v>96</v>
@@ -8356,16 +8359,16 @@
         <v>26</v>
       </c>
       <c r="K119">
-        <v>589</v>
+        <v>441</v>
       </c>
       <c r="T119" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="U119" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="V119" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="W119" t="s">
         <v>617</v>
@@ -8376,10 +8379,10 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -8391,10 +8394,10 @@
         <v>26</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="H120" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I120" t="s">
         <v>26</v>
@@ -8403,16 +8406,16 @@
         <v>26</v>
       </c>
       <c r="K120">
-        <v>1450</v>
+        <v>545</v>
       </c>
       <c r="T120" t="s">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="U120" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="V120" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="W120" t="s">
         <v>617</v>
@@ -8423,10 +8426,10 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -8438,10 +8441,10 @@
         <v>26</v>
       </c>
       <c r="G121" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="H121" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I121" t="s">
         <v>26</v>
@@ -8450,16 +8453,16 @@
         <v>26</v>
       </c>
       <c r="K121">
-        <v>8838</v>
+        <v>840</v>
       </c>
       <c r="T121" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="U121" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="V121" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="W121" t="s">
         <v>617</v>
@@ -8470,10 +8473,10 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="C122" t="s">
-        <v>450</v>
+        <v>96</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -8485,7 +8488,7 @@
         <v>26</v>
       </c>
       <c r="G122" t="s">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="H122" t="s">
         <v>28</v>
@@ -8497,16 +8500,16 @@
         <v>26</v>
       </c>
       <c r="K122">
-        <v>6879</v>
+        <v>4997</v>
       </c>
       <c r="T122" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="U122" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="V122" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="W122" t="s">
         <v>617</v>
@@ -8517,7 +8520,7 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="C123" t="s">
         <v>96</v>
@@ -8535,7 +8538,7 @@
         <v>97</v>
       </c>
       <c r="H123" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I123" t="s">
         <v>26</v>
@@ -8544,16 +8547,16 @@
         <v>26</v>
       </c>
       <c r="K123">
-        <v>1205</v>
+        <v>135</v>
       </c>
       <c r="T123" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="U123" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="V123" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="W123" t="s">
         <v>617</v>
@@ -8564,10 +8567,10 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="C124" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -8579,10 +8582,10 @@
         <v>26</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="H124" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="I124" t="s">
         <v>26</v>
@@ -8591,16 +8594,16 @@
         <v>26</v>
       </c>
       <c r="K124">
-        <v>1868</v>
+        <v>7391</v>
       </c>
       <c r="T124" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="U124" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="V124" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="W124" t="s">
         <v>617</v>
@@ -8611,10 +8614,10 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C125" t="s">
-        <v>461</v>
+        <v>96</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -8626,7 +8629,7 @@
         <v>26</v>
       </c>
       <c r="G125" t="s">
-        <v>462</v>
+        <v>97</v>
       </c>
       <c r="H125" t="s">
         <v>39</v>
@@ -8638,16 +8641,16 @@
         <v>26</v>
       </c>
       <c r="K125">
-        <v>3352</v>
+        <v>589</v>
       </c>
       <c r="T125" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="U125" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="V125" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="W125" t="s">
         <v>617</v>
@@ -8658,7 +8661,7 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C126" t="s">
         <v>96</v>
@@ -8676,7 +8679,7 @@
         <v>97</v>
       </c>
       <c r="H126" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I126" t="s">
         <v>26</v>
@@ -8685,16 +8688,16 @@
         <v>26</v>
       </c>
       <c r="K126">
-        <v>2545</v>
+        <v>1205</v>
       </c>
       <c r="T126" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="U126" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="V126" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="W126" t="s">
         <v>617</v>
@@ -8705,10 +8708,10 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C127" t="s">
-        <v>469</v>
+        <v>96</v>
       </c>
       <c r="D127" t="s">
         <v>24</v>
@@ -8720,10 +8723,10 @@
         <v>26</v>
       </c>
       <c r="G127" t="s">
-        <v>470</v>
+        <v>97</v>
       </c>
       <c r="H127" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I127" t="s">
         <v>26</v>
@@ -8732,16 +8735,16 @@
         <v>26</v>
       </c>
       <c r="K127">
-        <v>182</v>
+        <v>2545</v>
       </c>
       <c r="T127" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="U127" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="V127" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="W127" t="s">
         <v>617</v>
@@ -8752,10 +8755,10 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="D128" t="s">
         <v>24</v>
@@ -8767,10 +8770,10 @@
         <v>26</v>
       </c>
       <c r="G128" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="H128" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="I128" t="s">
         <v>26</v>
@@ -8779,16 +8782,16 @@
         <v>26</v>
       </c>
       <c r="K128">
-        <v>2524</v>
+        <v>1823</v>
       </c>
       <c r="T128" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="U128" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="V128" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="W128" t="s">
         <v>617</v>
@@ -8799,10 +8802,10 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="C129" t="s">
-        <v>477</v>
+        <v>96</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
@@ -8814,10 +8817,10 @@
         <v>26</v>
       </c>
       <c r="G129" t="s">
-        <v>478</v>
+        <v>97</v>
       </c>
       <c r="H129" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I129" t="s">
         <v>26</v>
@@ -8826,16 +8829,16 @@
         <v>26</v>
       </c>
       <c r="K129">
-        <v>3574</v>
+        <v>833</v>
       </c>
       <c r="T129" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="U129" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="V129" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="W129" t="s">
         <v>617</v>
@@ -8846,10 +8849,10 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="C130" t="s">
-        <v>461</v>
+        <v>96</v>
       </c>
       <c r="D130" t="s">
         <v>24</v>
@@ -8861,7 +8864,7 @@
         <v>26</v>
       </c>
       <c r="G130" t="s">
-        <v>462</v>
+        <v>97</v>
       </c>
       <c r="H130" t="s">
         <v>39</v>
@@ -8873,16 +8876,16 @@
         <v>26</v>
       </c>
       <c r="K130">
-        <v>10885</v>
+        <v>1061</v>
       </c>
       <c r="T130" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="U130" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="V130" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="W130" t="s">
         <v>617</v>
@@ -8893,10 +8896,10 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
         <v>24</v>
@@ -8908,10 +8911,10 @@
         <v>26</v>
       </c>
       <c r="G131" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="H131" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="I131" t="s">
         <v>26</v>
@@ -8920,16 +8923,16 @@
         <v>26</v>
       </c>
       <c r="K131">
-        <v>1823</v>
+        <v>926</v>
       </c>
       <c r="T131" t="s">
-        <v>485</v>
+        <v>34</v>
       </c>
       <c r="U131" t="s">
-        <v>486</v>
+        <v>35</v>
       </c>
       <c r="V131" t="s">
-        <v>611</v>
+        <v>503</v>
       </c>
       <c r="W131" t="s">
         <v>617</v>
@@ -8940,10 +8943,10 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="C132" t="s">
-        <v>488</v>
+        <v>32</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
@@ -8955,7 +8958,7 @@
         <v>26</v>
       </c>
       <c r="G132" t="s">
-        <v>489</v>
+        <v>33</v>
       </c>
       <c r="H132" t="s">
         <v>28</v>
@@ -8967,16 +8970,16 @@
         <v>26</v>
       </c>
       <c r="K132">
-        <v>1861</v>
+        <v>1450</v>
       </c>
       <c r="T132" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="U132" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="V132" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="W132" t="s">
         <v>617</v>
@@ -8987,10 +8990,10 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>492</v>
+        <v>326</v>
       </c>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="D133" t="s">
         <v>24</v>
@@ -9002,7 +9005,7 @@
         <v>26</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="H133" t="s">
         <v>28</v>
@@ -9014,16 +9017,16 @@
         <v>26</v>
       </c>
       <c r="K133">
-        <v>2248</v>
+        <v>4264</v>
       </c>
       <c r="T133" t="s">
-        <v>493</v>
+        <v>329</v>
       </c>
       <c r="U133" t="s">
-        <v>494</v>
+        <v>330</v>
       </c>
       <c r="V133" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="W133" t="s">
         <v>617</v>
@@ -9034,10 +9037,10 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>495</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="D134" t="s">
         <v>24</v>
@@ -9049,10 +9052,10 @@
         <v>26</v>
       </c>
       <c r="G134" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H134" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I134" t="s">
         <v>26</v>
@@ -9061,16 +9064,16 @@
         <v>26</v>
       </c>
       <c r="K134">
-        <v>833</v>
+        <v>4205</v>
       </c>
       <c r="T134" t="s">
-        <v>496</v>
+        <v>142</v>
       </c>
       <c r="U134" t="s">
-        <v>497</v>
+        <v>143</v>
       </c>
       <c r="V134" t="s">
-        <v>614</v>
+        <v>522</v>
       </c>
       <c r="W134" t="s">
         <v>617</v>
@@ -9081,10 +9084,10 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>498</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -9096,10 +9099,10 @@
         <v>26</v>
       </c>
       <c r="G135" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="H135" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I135" t="s">
         <v>26</v>
@@ -9108,22 +9111,25 @@
         <v>26</v>
       </c>
       <c r="K135">
-        <v>1061</v>
+        <v>5786</v>
       </c>
       <c r="T135" t="s">
-        <v>499</v>
+        <v>138</v>
       </c>
       <c r="U135" t="s">
-        <v>500</v>
+        <v>134</v>
       </c>
       <c r="V135" t="s">
-        <v>615</v>
+        <v>521</v>
       </c>
       <c r="W135" t="s">
         <v>617</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X135">
+    <sortCondition ref="C2:C135"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InputFiles/CCDI/phs002620-diagnosis_20240206_T163325.xlsx
+++ b/InputFiles/CCDI/phs002620-diagnosis_20240206_T163325.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758FD54-10DD-481A-B28E-E5257899955F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D5443-1939-4A60-A222-120DF85ADBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2741,7 +2744,7 @@
   <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/InputFiles/CCDI/phs002620-diagnosis_20240206_T163325.xlsx
+++ b/InputFiles/CCDI/phs002620-diagnosis_20240206_T163325.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D5443-1939-4A60-A222-120DF85ADBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA44A61-BD7B-4230-A8EA-84E884B53A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2744,7 +2744,7 @@
   <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9130,6 +9130,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X135">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X135">
     <sortCondition ref="C2:C135"/>
   </sortState>
